--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -112,6 +112,13 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後藤</t>
+    <rPh sb="0" eb="2">
+      <t>ゴトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,7 +488,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,18 +530,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -804,18 +833,69 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="D6:D7"/>
@@ -840,21 +920,21 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -864,57 +944,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -119,6 +119,20 @@
     <t>後藤</t>
     <rPh sb="0" eb="2">
       <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲谷</t>
+    <rPh sb="0" eb="2">
+      <t>ナカタニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五十嵐</t>
+    <rPh sb="0" eb="3">
+      <t>イガラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -151,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -174,13 +188,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,16 +561,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L3"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,10 +603,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -566,8 +639,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -580,22 +653,44 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -608,22 +703,44 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -636,8 +753,8 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -650,8 +767,8 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -664,8 +781,8 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -678,8 +795,8 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -692,8 +809,8 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -706,8 +823,8 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -720,8 +837,8 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -734,8 +851,8 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -748,8 +865,8 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -762,8 +879,8 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -776,8 +893,8 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -790,8 +907,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -804,8 +921,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -818,8 +935,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -850,15 +967,13 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="C18:C19"/>
@@ -874,6 +989,12 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="H18:H19"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -884,24 +1005,14 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="A1:B1"/>
@@ -920,6 +1031,12 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="L6:L7"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -133,6 +133,13 @@
     <t>五十嵐</t>
     <rPh sb="0" eb="3">
       <t>イガラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片岡</t>
+    <rPh sb="0" eb="2">
+      <t>カタオカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,6 +249,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,9 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,16 +568,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="L8" sqref="L8:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -603,10 +610,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -639,8 +646,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -653,10 +660,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -689,8 +696,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -703,10 +710,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -739,8 +746,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -753,22 +760,44 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -781,8 +810,8 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -795,8 +824,8 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -809,8 +838,8 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -823,8 +852,8 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -837,8 +866,8 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -851,8 +880,8 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -865,8 +894,8 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -879,8 +908,8 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -893,8 +922,8 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -907,8 +936,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -921,8 +950,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -935,8 +964,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -950,6 +979,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
@@ -974,93 +1090,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -116,30 +116,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後藤</t>
+    <t>後藤くん</t>
     <rPh sb="0" eb="2">
       <t>ゴトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仲谷</t>
+    <t>仲谷さん</t>
     <rPh sb="0" eb="2">
       <t>ナカタニ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>五十嵐</t>
+    <t>五十嵐くん</t>
     <rPh sb="0" eb="3">
       <t>イガラシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>片岡</t>
+    <t>片岡くん</t>
     <rPh sb="0" eb="2">
       <t>カタオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内村さん</t>
+    <rPh sb="0" eb="2">
+      <t>ウチムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,9 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,16 +575,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L9"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,10 +617,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -646,8 +653,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -660,10 +667,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -696,8 +703,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -710,10 +717,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -746,8 +753,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -760,10 +767,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -796,8 +803,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -810,22 +817,44 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -838,8 +867,8 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -852,8 +881,8 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -866,8 +895,8 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -880,8 +909,8 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -894,8 +923,8 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -908,8 +937,8 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -922,8 +951,8 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -936,8 +965,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -950,8 +979,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -964,8 +993,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -979,6 +1008,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="L6:L7"/>
@@ -1003,93 +1119,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -147,6 +147,13 @@
     <t>内村さん</t>
     <rPh sb="0" eb="2">
       <t>ウチムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城さん</t>
+    <rPh sb="0" eb="2">
+      <t>ウシロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,6 +263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,9 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,16 +582,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,10 +624,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -653,8 +660,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -667,10 +674,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -703,8 +710,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -717,10 +724,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -753,8 +760,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -767,10 +774,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -803,8 +810,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -817,10 +824,10 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -853,8 +860,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -867,22 +874,44 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -895,8 +924,8 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -909,8 +938,8 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -923,8 +952,8 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -937,8 +966,8 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -951,8 +980,8 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -965,8 +994,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -979,8 +1008,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -993,8 +1022,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1008,6 +1037,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
@@ -1032,93 +1148,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -154,6 +154,13 @@
     <t>宇城さん</t>
     <rPh sb="0" eb="2">
       <t>ウシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出口さん</t>
+    <rPh sb="0" eb="2">
+      <t>デグチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -263,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,16 +589,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+      <selection activeCell="A16" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -624,10 +631,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -660,8 +667,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -674,10 +681,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -710,8 +717,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -724,10 +731,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -760,8 +767,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -774,10 +781,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -810,8 +817,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -824,10 +831,10 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -860,8 +867,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -874,10 +881,10 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -910,8 +917,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -924,22 +931,44 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -952,8 +981,8 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -966,8 +995,8 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -980,8 +1009,8 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -994,8 +1023,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1008,8 +1037,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1022,8 +1051,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1037,6 +1066,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="L6:L7"/>
@@ -1061,93 +1177,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -161,6 +161,27 @@
     <t>出口さん</t>
     <rPh sb="0" eb="2">
       <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬さん</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上さん</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孫さん</t>
+    <rPh sb="0" eb="1">
+      <t>ソン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -270,6 +291,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,9 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,16 +610,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B17"/>
+      <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -631,10 +652,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -667,8 +688,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -681,10 +702,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -717,8 +738,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -731,10 +752,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -767,8 +788,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -781,10 +802,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -817,8 +838,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -831,10 +852,10 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -867,8 +888,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -881,10 +902,10 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -917,8 +938,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -931,10 +952,10 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2">
         <v>6</v>
       </c>
@@ -967,8 +988,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -981,22 +1002,44 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>24</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1009,8 +1052,10 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1023,8 +1068,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1037,8 +1082,10 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1051,8 +1098,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1066,6 +1113,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
@@ -1090,93 +1224,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -291,9 +291,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,6 +302,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,16 +610,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B21"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -652,10 +652,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -688,8 +688,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -702,10 +702,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -738,8 +738,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -752,10 +752,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -788,8 +788,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -802,10 +802,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -838,8 +838,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -852,10 +852,10 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -888,8 +888,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -902,10 +902,10 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -938,8 +938,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -952,10 +952,10 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2">
         <v>6</v>
       </c>
@@ -988,8 +988,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1002,10 +1002,10 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
@@ -1038,8 +1038,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1052,24 +1052,44 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1082,10 +1102,10 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1098,8 +1118,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1113,6 +1133,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="L6:L7"/>
@@ -1137,93 +1244,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Menu_jikken_240_training/Data/1.xlsx
+++ b/Menu_jikken_240_training/Data/1.xlsx
@@ -291,6 +291,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,9 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,16 +610,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -652,10 +652,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -688,8 +688,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -702,10 +702,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -738,8 +738,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -752,10 +752,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -788,8 +788,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -802,10 +802,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -838,8 +838,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -852,10 +852,10 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -888,8 +888,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -902,10 +902,10 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -938,8 +938,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -952,10 +952,10 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2">
         <v>6</v>
       </c>
@@ -988,8 +988,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1002,10 +1002,10 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
@@ -1038,8 +1038,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1052,10 +1052,10 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -1088,8 +1088,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1102,24 +1102,44 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1133,6 +1153,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
@@ -1157,93 +1264,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
